--- a/returns.xlsx
+++ b/returns.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>GOOGL</t>
         </is>
       </c>
     </row>
@@ -455,10 +455,10 @@
         <v>2010</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4460510435613698</v>
+        <v>0.4460510699475193</v>
       </c>
       <c r="C2" t="n">
-        <v>0.244586832032077</v>
+        <v>-0.01520391811327371</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>2011</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2620285015959262</v>
+        <v>0.2620283466166825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1979591015226267</v>
+        <v>0.1267350276191026</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>2012</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3246735262195127</v>
+        <v>0.32467373072032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3120332163556481</v>
+        <v>0.1172446929947621</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>2013</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1188758702220779</v>
+        <v>0.1188761570045521</v>
       </c>
       <c r="C5" t="n">
-        <v>1.718406722910772</v>
+        <v>0.4836152786847429</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>2014</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3645191036678695</v>
+        <v>0.3645190987929484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5059634794813437</v>
+        <v>-0.03282926801870267</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>2015</v>
       </c>
       <c r="B7" t="n">
-        <v>0.005019200926547729</v>
+        <v>0.00501936797054281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1511159889248253</v>
+        <v>0.4229586921135542</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>2016</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1448152687618455</v>
+        <v>0.1448149855377584</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.04055992807403519</v>
+        <v>0.0386499744281481</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>2017</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4107773127045508</v>
+        <v>0.4107773371551494</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4387148699722021</v>
+        <v>0.2963915892877524</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>2018</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.01437280302964994</v>
+        <v>-0.01437265900880969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2339285850587377</v>
+        <v>0.03158953712623869</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>2019</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6714780383040042</v>
+        <v>0.6714782435334591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3504573943162571</v>
+        <v>0.2762504355596236</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>2020</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7101506241594946</v>
+        <v>0.7101502691770591</v>
       </c>
       <c r="C12" t="n">
-        <v>2.541819058281295</v>
+        <v>0.3433743714889526</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>2021</v>
       </c>
       <c r="B13" t="n">
-        <v>0.329044730441579</v>
+        <v>0.3290449594997175</v>
       </c>
       <c r="C13" t="n">
-        <v>0.551483753918959</v>
+        <v>0.5323581589749211</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>2022</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2433709401599276</v>
+        <v>-0.2433710067271113</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.826557859433852</v>
+        <v>-0.4211973928327265</v>
       </c>
     </row>
   </sheetData>

--- a/returns.xlsx
+++ b/returns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,156 +441,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>Eqix</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>Meta</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4460510699475193</v>
+        <v>-0.1626614582340694</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01520391811327371</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2620283466166825</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1267350276191026</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.32467373072032</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1172446929947621</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1188761570045521</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4836152786847429</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.3645190987929484</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.03282926801870267</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.00501936797054281</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4229586921135542</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1448149855377584</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0386499744281481</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.4107773371551494</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2963915892877524</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.01437265900880969</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03158953712623869</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.6714782435334591</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2762504355596236</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.7101502691770591</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3433743714889526</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.3290449594997175</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5323581589749211</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-0.2433710067271113</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.4211973928327265</v>
+        <v>-0.8155594273550975</v>
       </c>
     </row>
   </sheetData>
